--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_88_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_88_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.244730564529359, 4.863436837817481]</t>
+          <t>[4.265364462256191, 4.84280294009065]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.19454271783210952, 0.509471592422968]</t>
+          <t>[0.19479244710808707, 0.5092218631469905]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>4.722101802978607e-05</v>
+        <v>4.613916460805001e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>4.722101802978607e-05</v>
+        <v>4.613916460805001e-05</v>
       </c>
       <c r="W2" t="n">
         <v>8.959259259259504</v>
